--- a/biology/Botanique/Pouteria_guianensis/Pouteria_guianensis.xlsx
+++ b/biology/Botanique/Pouteria_guianensis/Pouteria_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abiu
-L’abiu ou Poutérier de la Guyane[3] (Pouteria guianensis, syn. = Pouteria caimito) est une espèce de plante à fleurs de la famille des Sapotaceae originaire d'Amazonie (Brésil, Guyanes et Pérou). Il produit un fruit tropical.
-Le terme « abiu » désigne aussi bien le fruit que l'arbre. C’est le fruit de l’abieiro, un arbre de la famille des sapotacées originaire de l'Amazonie centrale et de la forêt atlantique côtière du Brésil, de Pernambouc à Rio de Janeiro[4].
+L’abiu ou Poutérier de la Guyane (Pouteria guianensis, syn. = Pouteria caimito) est une espèce de plante à fleurs de la famille des Sapotaceae originaire d'Amazonie (Brésil, Guyanes et Pérou). Il produit un fruit tropical.
+Le terme « abiu » désigne aussi bien le fruit que l'arbre. C’est le fruit de l’abieiro, un arbre de la famille des sapotacées originaire de l'Amazonie centrale et de la forêt atlantique côtière du Brésil, de Pernambouc à Rio de Janeiro.
 Pouteria guianensis Aubl. est l'espèce type du genre Pouteria Aubl..
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce dans les forêts du nord de l'Amérique du Sud (bassin de l'Orénoque, Guyanes, Amazonie, forêt Atlantique...).
 </t>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre haut de 15 à 20 m produit du latex (comme la plupart des Sapotaceae). Il porte des feuilles alternes, simples, entières, à pétiole pubérulent-soyeux, long de 2 à 4 cm. Le  limbe est coriace, glabre, de forme obovale-oblongue, long de 12 à 22 (-30) cm, pour 5 à 9 de large, à base obtuse ou subaigüe, à apex arrondi ou à acumen obtus. La nervure centrale est saillante à la face inférieure[3].
-Il produit des inflorescences en faisceaux axillaires ou supra-axillaires comportant environ 6 fleurs hermaphrodites. Le pédicelle, long d'environ 3 mm, est pubérulent-soyeux. Le calice mesurant 3 mm est composé de sépales ovales, tomenteux-brunâtres. La corolle est blanche de même grandeur avec des lobes arrondis[3].
-Le fruit est une baie globuleuse ou ovoïde longue de 4 à 5 cm pour de 3,5 à 4 de large. Sa couleur va du brun-noirâtre au jaune brillant. Il contient 1 à 4 graines ellipsoïdes, latéralement comprimées longues d'environ 2,5 cm pour 1,8 de large, lisses et noires, portant une cicatrice oblongue (hile). Sa peau est épaisse et dure, et sa chair translucide, tendre, sucrée[4],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre haut de 15 à 20 m produit du latex (comme la plupart des Sapotaceae). Il porte des feuilles alternes, simples, entières, à pétiole pubérulent-soyeux, long de 2 à 4 cm. Le  limbe est coriace, glabre, de forme obovale-oblongue, long de 12 à 22 (-30) cm, pour 5 à 9 de large, à base obtuse ou subaigüe, à apex arrondi ou à acumen obtus. La nervure centrale est saillante à la face inférieure.
+Il produit des inflorescences en faisceaux axillaires ou supra-axillaires comportant environ 6 fleurs hermaphrodites. Le pédicelle, long d'environ 3 mm, est pubérulent-soyeux. Le calice mesurant 3 mm est composé de sépales ovales, tomenteux-brunâtres. La corolle est blanche de même grandeur avec des lobes arrondis.
+Le fruit est une baie globuleuse ou ovoïde longue de 4 à 5 cm pour de 3,5 à 4 de large. Sa couleur va du brun-noirâtre au jaune brillant. Il contient 1 à 4 graines ellipsoïdes, latéralement comprimées longues d'environ 2,5 cm pour 1,8 de large, lisses et noires, portant une cicatrice oblongue (hile). Sa peau est épaisse et dure, et sa chair translucide, tendre, sucrée,.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pulpe des fruits est sucrée et peut être consommée crue[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe des fruits est sucrée et peut être consommée crue.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « POUTERIA Guianenſis. (Tabula 33.)
 Arbor trunco quadraginta-pedali, ad ſummitatem ramoſo, ramis rectis, &amp; undique ſparſis. Folia alterna, congeſta, ovato-oblonga, acuta, glabra, rigida, integerrima, longè petiolata. Flores ſuprà ramuſculos, &amp; ad axillas foliorum, bini, aut terni ſimul juncti, brevi pedunculo ſuffulti. Corolla ſubviridis.
 Florebat, tructumque ferebat Novembri.
